--- a/Model/BayesLSTM/Univariate/result/Service/BRA.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/BRA.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>61.47506713867188</v>
+        <v>55.12469482421875</v>
       </c>
       <c r="C2" t="n">
-        <v>58.02941513061523</v>
+        <v>53.31954193115234</v>
       </c>
       <c r="D2" t="n">
-        <v>64.92072296142578</v>
+        <v>56.92984771728516</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>58.2922248840332</v>
+        <v>55.88052368164062</v>
       </c>
       <c r="C3" t="n">
-        <v>53.06755828857422</v>
+        <v>52.70352554321289</v>
       </c>
       <c r="D3" t="n">
-        <v>63.51689147949219</v>
+        <v>59.05752182006836</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>57.162109375</v>
+        <v>55.55417633056641</v>
       </c>
       <c r="C4" t="n">
-        <v>50.86730194091797</v>
+        <v>52.72770309448242</v>
       </c>
       <c r="D4" t="n">
-        <v>63.45691680908203</v>
+        <v>58.38064956665039</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>57.64617156982422</v>
+        <v>54.75093841552734</v>
       </c>
       <c r="C5" t="n">
-        <v>50.73109436035156</v>
+        <v>52.07337188720703</v>
       </c>
       <c r="D5" t="n">
-        <v>64.56124877929688</v>
+        <v>57.42850494384766</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>58.38978958129883</v>
+        <v>54.96001434326172</v>
       </c>
       <c r="C6" t="n">
-        <v>51.21597671508789</v>
+        <v>52.46007919311523</v>
       </c>
       <c r="D6" t="n">
-        <v>65.56360626220703</v>
+        <v>57.4599494934082</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>57.77289962768555</v>
+        <v>55.50850296020508</v>
       </c>
       <c r="C7" t="n">
-        <v>52.00593185424805</v>
+        <v>53.13138580322266</v>
       </c>
       <c r="D7" t="n">
-        <v>63.53986740112305</v>
+        <v>57.8856201171875</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>57.34283447265625</v>
+        <v>55.25651168823242</v>
       </c>
       <c r="C8" t="n">
-        <v>52.12191772460938</v>
+        <v>52.31346893310547</v>
       </c>
       <c r="D8" t="n">
-        <v>62.56375122070312</v>
+        <v>58.19955444335938</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>57.03330230712891</v>
+        <v>55.078857421875</v>
       </c>
       <c r="C9" t="n">
-        <v>51.95648956298828</v>
+        <v>51.32557678222656</v>
       </c>
       <c r="D9" t="n">
-        <v>62.11011505126953</v>
+        <v>58.83213806152344</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>56.55697631835938</v>
+        <v>55.15789794921875</v>
       </c>
       <c r="C10" t="n">
-        <v>51.45574188232422</v>
+        <v>51.9608268737793</v>
       </c>
       <c r="D10" t="n">
-        <v>61.65821075439453</v>
+        <v>58.3549690246582</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>57.8174934387207</v>
+        <v>54.5068244934082</v>
       </c>
       <c r="C11" t="n">
-        <v>52.49596786499023</v>
+        <v>52.12912750244141</v>
       </c>
       <c r="D11" t="n">
-        <v>63.13901901245117</v>
+        <v>56.884521484375</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>58.47974395751953</v>
+        <v>55.61431121826172</v>
       </c>
       <c r="C12" t="n">
-        <v>52.94414901733398</v>
+        <v>53.52632904052734</v>
       </c>
       <c r="D12" t="n">
-        <v>64.01533508300781</v>
+        <v>57.70229339599609</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>58.17830657958984</v>
+        <v>55.17465209960938</v>
       </c>
       <c r="C13" t="n">
-        <v>50.09988784790039</v>
+        <v>52.32659530639648</v>
       </c>
       <c r="D13" t="n">
-        <v>66.25672149658203</v>
+        <v>58.02270889282227</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>57.11797332763672</v>
+        <v>55.41458129882812</v>
       </c>
       <c r="C14" t="n">
-        <v>49.40962982177734</v>
+        <v>53.18927001953125</v>
       </c>
       <c r="D14" t="n">
-        <v>64.82631683349609</v>
+        <v>57.639892578125</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>57.58588790893555</v>
+        <v>54.31316375732422</v>
       </c>
       <c r="C15" t="n">
-        <v>51.12317657470703</v>
+        <v>53.03332138061523</v>
       </c>
       <c r="D15" t="n">
-        <v>64.04859924316406</v>
+        <v>55.5930061340332</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>59.36051177978516</v>
+        <v>54.23215866088867</v>
       </c>
       <c r="C16" t="n">
-        <v>53.61899185180664</v>
+        <v>51.60757827758789</v>
       </c>
       <c r="D16" t="n">
-        <v>65.10203552246094</v>
+        <v>56.85673904418945</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>59.3067741394043</v>
+        <v>54.52431488037109</v>
       </c>
       <c r="C17" t="n">
-        <v>51.69424819946289</v>
+        <v>52.17861557006836</v>
       </c>
       <c r="D17" t="n">
-        <v>66.91929626464844</v>
+        <v>56.87001419067383</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>59.89847564697266</v>
+        <v>54.22726440429688</v>
       </c>
       <c r="C18" t="n">
-        <v>52.09976577758789</v>
+        <v>52.34280776977539</v>
       </c>
       <c r="D18" t="n">
-        <v>67.69718933105469</v>
+        <v>56.11172103881836</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>59.35830688476562</v>
+        <v>54.24056243896484</v>
       </c>
       <c r="C19" t="n">
-        <v>53.37414932250977</v>
+        <v>51.67522430419922</v>
       </c>
       <c r="D19" t="n">
-        <v>65.34246063232422</v>
+        <v>56.80590057373047</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>58.48758697509766</v>
+        <v>54.47772979736328</v>
       </c>
       <c r="C20" t="n">
-        <v>52.96875381469727</v>
+        <v>52.3691291809082</v>
       </c>
       <c r="D20" t="n">
-        <v>64.00642395019531</v>
+        <v>56.58633041381836</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>59.53871536254883</v>
+        <v>54.64705657958984</v>
       </c>
       <c r="C21" t="n">
-        <v>53.68437576293945</v>
+        <v>52.14080047607422</v>
       </c>
       <c r="D21" t="n">
-        <v>65.39305114746094</v>
+        <v>57.15331268310547</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>59.88484573364258</v>
+        <v>54.72920608520508</v>
       </c>
       <c r="C22" t="n">
-        <v>53.84394836425781</v>
+        <v>52.33086013793945</v>
       </c>
       <c r="D22" t="n">
-        <v>65.92574310302734</v>
+        <v>57.1275520324707</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>60.24342727661133</v>
+        <v>54.9976921081543</v>
       </c>
       <c r="C23" t="n">
-        <v>53.82901763916016</v>
+        <v>52.27315521240234</v>
       </c>
       <c r="D23" t="n">
-        <v>66.6578369140625</v>
+        <v>57.72222900390625</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>60.2847785949707</v>
+        <v>54.60099029541016</v>
       </c>
       <c r="C24" t="n">
-        <v>53.67472457885742</v>
+        <v>51.63779449462891</v>
       </c>
       <c r="D24" t="n">
-        <v>66.89482879638672</v>
+        <v>57.56418609619141</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>59.51775360107422</v>
+        <v>53.93367385864258</v>
       </c>
       <c r="C25" t="n">
-        <v>53.0017204284668</v>
+        <v>51.60062408447266</v>
       </c>
       <c r="D25" t="n">
-        <v>66.03378295898438</v>
+        <v>56.2667236328125</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>58.89929962158203</v>
+        <v>54.24137496948242</v>
       </c>
       <c r="C26" t="n">
-        <v>52.74150085449219</v>
+        <v>52.35662841796875</v>
       </c>
       <c r="D26" t="n">
-        <v>65.05709838867188</v>
+        <v>56.12612152099609</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>59.13288497924805</v>
+        <v>54.90449905395508</v>
       </c>
       <c r="C27" t="n">
-        <v>52.8695068359375</v>
+        <v>52.14876174926758</v>
       </c>
       <c r="D27" t="n">
-        <v>65.39626312255859</v>
+        <v>57.66023635864258</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>60.01457595825195</v>
+        <v>54.93400192260742</v>
       </c>
       <c r="C28" t="n">
-        <v>53.35590362548828</v>
+        <v>52.58467483520508</v>
       </c>
       <c r="D28" t="n">
-        <v>66.67324829101562</v>
+        <v>57.28332901000977</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>60.59149932861328</v>
+        <v>54.85800933837891</v>
       </c>
       <c r="C29" t="n">
-        <v>53.84711074829102</v>
+        <v>53.36143493652344</v>
       </c>
       <c r="D29" t="n">
-        <v>67.33589172363281</v>
+        <v>56.35458374023438</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>60.1955680847168</v>
+        <v>54.81611251831055</v>
       </c>
       <c r="C30" t="n">
-        <v>53.38664245605469</v>
+        <v>52.82768630981445</v>
       </c>
       <c r="D30" t="n">
-        <v>67.00449371337891</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>60.6315803527832</v>
-      </c>
-      <c r="C31" t="n">
-        <v>53.80867004394531</v>
-      </c>
-      <c r="D31" t="n">
-        <v>67.45449066162109</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>59.94887542724609</v>
-      </c>
-      <c r="C32" t="n">
-        <v>53.41766738891602</v>
-      </c>
-      <c r="D32" t="n">
-        <v>66.48008728027344</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>60.04070281982422</v>
-      </c>
-      <c r="C33" t="n">
-        <v>53.19737243652344</v>
-      </c>
-      <c r="D33" t="n">
-        <v>66.884033203125</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>60.63338470458984</v>
-      </c>
-      <c r="C34" t="n">
-        <v>53.52196502685547</v>
-      </c>
-      <c r="D34" t="n">
-        <v>67.74480438232422</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>59.85248947143555</v>
-      </c>
-      <c r="C35" t="n">
-        <v>52.9012451171875</v>
-      </c>
-      <c r="D35" t="n">
-        <v>66.80373382568359</v>
+        <v>56.80453872680664</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>55.92365341186523</v>
+        <v>54.73441696166992</v>
       </c>
       <c r="C2" t="n">
-        <v>51.03944986994175</v>
+        <v>52.21583557128906</v>
       </c>
       <c r="D2" t="n">
-        <v>60.80785695378871</v>
+        <v>57.25299835205078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>49.73666610717773</v>
+        <v>54.6578483581543</v>
       </c>
       <c r="C3" t="n">
-        <v>46.56165488683511</v>
+        <v>52.25551605224609</v>
       </c>
       <c r="D3" t="n">
-        <v>52.91167732752035</v>
+        <v>57.0601806640625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>62.7096809387207</v>
+        <v>54.58088302612305</v>
       </c>
       <c r="C4" t="n">
-        <v>56.83797083652414</v>
+        <v>51.86341857910156</v>
       </c>
       <c r="D4" t="n">
-        <v>68.58139104091725</v>
+        <v>57.29834747314453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>56.11760482788086</v>
+        <v>54.6432991027832</v>
       </c>
       <c r="C5" t="n">
-        <v>52.78574775343263</v>
+        <v>51.56107711791992</v>
       </c>
       <c r="D5" t="n">
-        <v>59.44946190232909</v>
+        <v>57.72552108764648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>62.30924530029297</v>
+        <v>54.36952972412109</v>
       </c>
       <c r="C6" t="n">
-        <v>56.65128474540918</v>
+        <v>51.50563430786133</v>
       </c>
       <c r="D6" t="n">
-        <v>67.96720585517677</v>
+        <v>57.23342514038086</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>58.37668609619141</v>
+        <v>56.10105133056641</v>
       </c>
       <c r="C2" t="n">
-        <v>53.18697738647461</v>
+        <v>50.37101745605469</v>
       </c>
       <c r="D2" t="n">
-        <v>63.5663948059082</v>
+        <v>61.83108520507812</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>61.32622146606445</v>
+        <v>56.62679290771484</v>
       </c>
       <c r="C3" t="n">
-        <v>54.11351013183594</v>
+        <v>50.62335205078125</v>
       </c>
       <c r="D3" t="n">
-        <v>68.53893280029297</v>
+        <v>62.63023376464844</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>61.23207855224609</v>
+        <v>56.17731857299805</v>
       </c>
       <c r="C4" t="n">
-        <v>53.03499221801758</v>
+        <v>50.82473373413086</v>
       </c>
       <c r="D4" t="n">
-        <v>69.42916870117188</v>
+        <v>61.52990341186523</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>61.6082649230957</v>
+        <v>56.2765998840332</v>
       </c>
       <c r="C5" t="n">
-        <v>53.45401000976562</v>
+        <v>49.17423248291016</v>
       </c>
       <c r="D5" t="n">
-        <v>69.76251983642578</v>
+        <v>63.37896728515625</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>61.32648468017578</v>
+        <v>56.31942749023438</v>
       </c>
       <c r="C6" t="n">
-        <v>53.22863006591797</v>
+        <v>50.61072540283203</v>
       </c>
       <c r="D6" t="n">
-        <v>69.42433929443359</v>
+        <v>62.02812957763672</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>61.31793212890625</v>
+        <v>56.25765228271484</v>
       </c>
       <c r="C7" t="n">
-        <v>53.21983337402344</v>
+        <v>50.32940292358398</v>
       </c>
       <c r="D7" t="n">
-        <v>69.41603088378906</v>
+        <v>62.1859016418457</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>60.87644577026367</v>
+        <v>56.4024658203125</v>
       </c>
       <c r="C8" t="n">
-        <v>53.10922241210938</v>
+        <v>50.93405151367188</v>
       </c>
       <c r="D8" t="n">
-        <v>68.64366912841797</v>
+        <v>61.87088012695312</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>61.5268669128418</v>
+        <v>57.27728271484375</v>
       </c>
       <c r="C9" t="n">
-        <v>53.20095825195312</v>
+        <v>51.77940368652344</v>
       </c>
       <c r="D9" t="n">
-        <v>69.85277557373047</v>
+        <v>62.77516174316406</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>61.10402297973633</v>
+        <v>57.30599212646484</v>
       </c>
       <c r="C10" t="n">
-        <v>50.34140014648438</v>
+        <v>51.66581344604492</v>
       </c>
       <c r="D10" t="n">
-        <v>71.86664581298828</v>
+        <v>62.94617080688477</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>62.61647796630859</v>
+        <v>56.53932952880859</v>
       </c>
       <c r="C11" t="n">
-        <v>53.05741500854492</v>
+        <v>52.25658798217773</v>
       </c>
       <c r="D11" t="n">
-        <v>72.175537109375</v>
+        <v>60.82207107543945</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>60.06023406982422</v>
+        <v>56.2401237487793</v>
       </c>
       <c r="C12" t="n">
-        <v>54.89638137817383</v>
+        <v>49.39917373657227</v>
       </c>
       <c r="D12" t="n">
-        <v>65.22408294677734</v>
+        <v>63.08107376098633</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>60.96829986572266</v>
+        <v>55.74928665161133</v>
       </c>
       <c r="C13" t="n">
-        <v>50.5201301574707</v>
+        <v>48.84699249267578</v>
       </c>
       <c r="D13" t="n">
-        <v>71.41646575927734</v>
+        <v>62.65158081054688</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>60.50218963623047</v>
+        <v>57.4962158203125</v>
       </c>
       <c r="C14" t="n">
-        <v>52.80695343017578</v>
+        <v>51.79215621948242</v>
       </c>
       <c r="D14" t="n">
-        <v>68.19742584228516</v>
+        <v>63.20027542114258</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>60.72026824951172</v>
+        <v>56.00629425048828</v>
       </c>
       <c r="C15" t="n">
-        <v>48.14026641845703</v>
+        <v>51.88132095336914</v>
       </c>
       <c r="D15" t="n">
-        <v>73.30027008056641</v>
+        <v>60.13126754760742</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>61.17822265625</v>
+        <v>55.84862518310547</v>
       </c>
       <c r="C16" t="n">
-        <v>54.40517044067383</v>
+        <v>46.86012268066406</v>
       </c>
       <c r="D16" t="n">
-        <v>67.95127868652344</v>
+        <v>64.83712768554688</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>58.90240478515625</v>
+        <v>56.02924346923828</v>
       </c>
       <c r="C17" t="n">
-        <v>53.26218032836914</v>
+        <v>50.18386077880859</v>
       </c>
       <c r="D17" t="n">
-        <v>64.54262542724609</v>
+        <v>61.87462615966797</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>61.19280242919922</v>
+        <v>57.18435668945312</v>
       </c>
       <c r="C18" t="n">
-        <v>53.90027236938477</v>
+        <v>49.68906021118164</v>
       </c>
       <c r="D18" t="n">
-        <v>68.48533630371094</v>
+        <v>64.67965698242188</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>60.30484771728516</v>
+        <v>55.99680709838867</v>
       </c>
       <c r="C19" t="n">
-        <v>51.38563537597656</v>
+        <v>46.85881042480469</v>
       </c>
       <c r="D19" t="n">
-        <v>69.22406005859375</v>
+        <v>65.13480377197266</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>60.67426681518555</v>
+        <v>56.36634063720703</v>
       </c>
       <c r="C20" t="n">
-        <v>51.71264266967773</v>
+        <v>49.01693344116211</v>
       </c>
       <c r="D20" t="n">
-        <v>69.63589477539062</v>
+        <v>63.71574783325195</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>61.21300506591797</v>
+        <v>56.76813888549805</v>
       </c>
       <c r="C21" t="n">
-        <v>51.96787643432617</v>
+        <v>48.62321090698242</v>
       </c>
       <c r="D21" t="n">
-        <v>70.45813751220703</v>
+        <v>64.91307067871094</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>61.00428009033203</v>
+        <v>55.07582473754883</v>
       </c>
       <c r="C22" t="n">
-        <v>53.86927795410156</v>
+        <v>46.78521347045898</v>
       </c>
       <c r="D22" t="n">
-        <v>68.1392822265625</v>
+        <v>63.36643600463867</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>60.81945037841797</v>
+        <v>55.09688568115234</v>
       </c>
       <c r="C23" t="n">
-        <v>53.79949188232422</v>
+        <v>48.66832733154297</v>
       </c>
       <c r="D23" t="n">
-        <v>67.83940887451172</v>
+        <v>61.52544403076172</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>60.87775802612305</v>
+        <v>55.36140823364258</v>
       </c>
       <c r="C24" t="n">
-        <v>54.51163101196289</v>
+        <v>48.51563262939453</v>
       </c>
       <c r="D24" t="n">
-        <v>67.24388885498047</v>
+        <v>62.20718383789062</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>61.23995971679688</v>
+        <v>55.90972137451172</v>
       </c>
       <c r="C25" t="n">
-        <v>54.51445388793945</v>
+        <v>49.20210266113281</v>
       </c>
       <c r="D25" t="n">
-        <v>67.96546936035156</v>
+        <v>62.61734008789062</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>59.81229782104492</v>
+        <v>54.39773559570312</v>
       </c>
       <c r="C26" t="n">
-        <v>51.18096923828125</v>
+        <v>47.58582305908203</v>
       </c>
       <c r="D26" t="n">
-        <v>68.44362640380859</v>
+        <v>61.20964813232422</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>61.42723846435547</v>
+        <v>54.94464111328125</v>
       </c>
       <c r="C27" t="n">
-        <v>54.18497848510742</v>
+        <v>46.699951171875</v>
       </c>
       <c r="D27" t="n">
-        <v>68.66950225830078</v>
+        <v>63.1893310546875</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>59.45465850830078</v>
+        <v>55.27693557739258</v>
       </c>
       <c r="C28" t="n">
-        <v>52.62416839599609</v>
+        <v>47.5562858581543</v>
       </c>
       <c r="D28" t="n">
-        <v>66.28514862060547</v>
+        <v>62.99758529663086</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>60.11198043823242</v>
+        <v>56.65388107299805</v>
       </c>
       <c r="C29" t="n">
-        <v>54.67620086669922</v>
+        <v>49.65216827392578</v>
       </c>
       <c r="D29" t="n">
-        <v>65.54776000976562</v>
+        <v>63.65559387207031</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>60.20174026489258</v>
+        <v>56.98345947265625</v>
       </c>
       <c r="C30" t="n">
-        <v>54.32281494140625</v>
+        <v>50.99694442749023</v>
       </c>
       <c r="D30" t="n">
-        <v>66.08066558837891</v>
+        <v>62.96997451782227</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>60.04150390625</v>
+        <v>56.23696899414062</v>
       </c>
       <c r="C31" t="n">
-        <v>54.94513702392578</v>
+        <v>49.09534454345703</v>
       </c>
       <c r="D31" t="n">
-        <v>65.13787078857422</v>
+        <v>63.37859344482422</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>60.34476470947266</v>
+        <v>55.96242141723633</v>
       </c>
       <c r="C32" t="n">
-        <v>53.58697509765625</v>
+        <v>51.01984786987305</v>
       </c>
       <c r="D32" t="n">
-        <v>67.10255432128906</v>
+        <v>60.90499496459961</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>60.00043869018555</v>
+        <v>55.98822021484375</v>
       </c>
       <c r="C33" t="n">
-        <v>55.38986206054688</v>
+        <v>49.84272003173828</v>
       </c>
       <c r="D33" t="n">
-        <v>64.61101531982422</v>
+        <v>62.13372039794922</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>59.9326057434082</v>
+        <v>56.01043701171875</v>
       </c>
       <c r="C34" t="n">
-        <v>54.58037948608398</v>
+        <v>50.72475814819336</v>
       </c>
       <c r="D34" t="n">
-        <v>65.28482818603516</v>
+        <v>61.29611587524414</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>61.17255401611328</v>
+        <v>55.12328338623047</v>
       </c>
       <c r="C35" t="n">
-        <v>53.50550079345703</v>
+        <v>48.6467399597168</v>
       </c>
       <c r="D35" t="n">
-        <v>68.83960723876953</v>
+        <v>61.59982681274414</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>58.24873695373535</v>
+        <v>59.91276969909668</v>
       </c>
       <c r="C2" t="n">
-        <v>54.24660430969151</v>
+        <v>56.16564451932059</v>
       </c>
       <c r="D2" t="n">
-        <v>62.25086959777919</v>
+        <v>63.65989487887276</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>56.53657913208008</v>
+        <v>59.09122276306152</v>
       </c>
       <c r="C3" t="n">
-        <v>50.29522631570902</v>
+        <v>55.13356565055062</v>
       </c>
       <c r="D3" t="n">
-        <v>62.77793194845114</v>
+        <v>63.04887987557242</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>57.4441478729248</v>
+        <v>59.9182788848877</v>
       </c>
       <c r="C4" t="n">
-        <v>53.78421520348723</v>
+        <v>55.92427911329265</v>
       </c>
       <c r="D4" t="n">
-        <v>61.10408054236238</v>
+        <v>63.91227865648275</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>61.36406593322754</v>
+        <v>57.77381935119629</v>
       </c>
       <c r="C5" t="n">
-        <v>58.85792859631682</v>
+        <v>54.70266697178839</v>
       </c>
       <c r="D5" t="n">
-        <v>63.87020327013825</v>
+        <v>60.84497173060419</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>60.32888336181641</v>
+        <v>57.81590576171875</v>
       </c>
       <c r="C6" t="n">
-        <v>56.27687103459933</v>
+        <v>53.80328005552203</v>
       </c>
       <c r="D6" t="n">
-        <v>64.38089568903348</v>
+        <v>61.82853146791548</v>
       </c>
     </row>
   </sheetData>
